--- a/Stock_Count/InventoryAdj-2022-02-24.xlsx
+++ b/Stock_Count/InventoryAdj-2022-02-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\BODEGASALE-LAPT\MS-Access\Stock_Count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401A5949-DCD2-456E-916C-6F4A00C51254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B97635-058A-4C25-A572-FD868DBE8C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{0C2EF5CE-4440-4843-87EC-BE80AF615CFD}"/>
   </bookViews>
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="M17" sqref="M16:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
